--- a/P5 - GPGUI SOUND CARD UART COMMANDS.xlsx
+++ b/P5 - GPGUI SOUND CARD UART COMMANDS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Trade\Desktop\GPGUI MANUAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7995E7E5-7079-4988-A0DD-A617DF67C9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C9F5DA-1D49-4889-8966-924233B8CDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{811920A1-B8E5-4B68-8996-9C47E24D40A7}"/>
   </bookViews>
@@ -102,13 +102,13 @@
     <t>midi all notes off(midi channel,midi CC,x)</t>
   </si>
   <si>
-    <t>0-32</t>
-  </si>
-  <si>
     <t>0-254</t>
   </si>
   <si>
     <t>DIRECT REGISTOR WRITE(COMMAND BYTE, MEM ADDRESS REG, REGISTOR VALUE)</t>
+  </si>
+  <si>
+    <t>0-96</t>
   </si>
 </sst>
 </file>
@@ -742,7 +742,7 @@
   <dimension ref="A3:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,10 +883,10 @@
         <v>255</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
       </c>
       <c r="D12">
         <v>31250</v>
@@ -895,7 +895,7 @@
         <v>8</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
